--- a/DateBase/orders/Dang Nguyen_2024-12-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-6.xlsx
@@ -899,6 +899,9 @@
       <c r="G2" t="str">
         <v>010510205515155205101544105285510515515301020201510101016151515158810410101165</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
